--- a/Document/音源仕様.xlsx
+++ b/Document/音源仕様.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Desktop\枕返し仕様書\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F7B742-B73D-45FF-B255-BFCA67830D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B32182-53D5-49D5-9684-A852149E82C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC0ED6DE-1C1C-4563-9F26-F3F6FDA4C8BE}"/>
   </bookViews>
   <sheets>
     <sheet name="音源について" sheetId="1" r:id="rId1"/>
+    <sheet name="BGM" sheetId="2" r:id="rId2"/>
+    <sheet name="SE" sheetId="3" r:id="rId3"/>
+    <sheet name="ジングル" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>必要な音</t>
     <rPh sb="0" eb="2">
@@ -43,13 +46,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -272,6 +268,161 @@
   </si>
   <si>
     <t>90sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子どもの姿の時に流れる</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人の姿の時に流れる</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.2</t>
+  </si>
+  <si>
+    <t>No.3</t>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲イメージ</t>
+    <rPh sb="0" eb="1">
+      <t>キョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒数</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンポ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルネーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目一覧</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート、ステージ選択画面で流れる</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミドル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考音源</t>
+    <rPh sb="0" eb="4">
+      <t>サンコウオンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジングル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カットインの音</t>
+    <rPh sb="6" eb="7">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ああ、変身の音</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オノマトペが必要</t>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -279,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,16 +446,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -327,17 +490,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,17 +863,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4A28EF-4BFB-4399-871B-2F7B8D94E641}">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.3984375" customWidth="1"/>
     <col min="3" max="3" width="24.3984375" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" customWidth="1"/>
+    <col min="4" max="4" width="31.3984375" customWidth="1"/>
     <col min="5" max="5" width="19.09765625" customWidth="1"/>
     <col min="6" max="6" width="43.296875" customWidth="1"/>
     <col min="7" max="7" width="8.19921875" customWidth="1"/>
@@ -677,124 +886,308 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C10" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA5ECD-774F-452D-8A36-797609D02FD3}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="31.8984375" customWidth="1"/>
+    <col min="8" max="8" width="42.5" customWidth="1"/>
+    <col min="9" max="9" width="37.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EA05C8-3A0B-478C-B704-5C93760375BD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57683C09-B616-442B-83D1-CB6EF3460FA8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
